--- a/FMP/Assets/Resources/Sheets/对话测试表.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA404C3-6DCE-4592-A3B0-475FE78D26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479F1A1A-87A2-42F7-A27C-53528A7000FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1为玩家选项</t>
+0或空置为正常对话
+1为玩家选项
+-1为结束对话
+</t>
         </r>
       </text>
     </comment>
@@ -88,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +177,10 @@
   </si>
   <si>
     <t>三回啊三回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,13 +290,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:G12" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:G12" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:G13" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:G13" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
   <tableColumns count="7">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
       <xmlColumnPr mapId="6" xpath="/dialogues/line/@id" xmlDataType="string"/>
@@ -390,7 +398,7 @@
     <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id">
       <xmlColumnPr mapId="6" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="0" dataCellStyle="注释">
+    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="1" dataCellStyle="注释">
       <calculatedColumnFormula>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C388B9B5-0613-49F0-9A1C-27EF43E742AB}" uniqueName="content" name="对话内容">
@@ -402,7 +410,7 @@
     <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转">
       <xmlColumnPr mapId="6" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="1" dataCellStyle="注释">
+    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="0" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -684,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -695,9 +703,9 @@
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.9140625" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -767,7 +775,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -912,11 +920,11 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>压力马斯内</v>
+        <v>结束</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -935,11 +943,11 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(NOT(ISBLANK(F11)), VLOOKUP(F11,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>压力马斯内</v>
+        <v>结束</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -963,6 +971,26 @@
       <c r="G12" s="5" t="str">
         <f>IF(NOT(ISBLANK(F12)), VLOOKUP(F12,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>这这不能</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6">
+        <f>IF(NOT(ISBLANK(F13)), VLOOKUP(F13,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A5D263-880A-4794-8D54-8E19E2DB3300}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/FMP/Assets/Resources/Sheets/对话测试表.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479F1A1A-87A2-42F7-A27C-53528A7000FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5865E-0A55-46D6-B59F-EF76B673EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃完了有奖励，吃不完有惩罚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,14 @@
   </si>
   <si>
     <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转对话id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兽先辈的会员制餐厅，就是你的所在之处了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,23 +329,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="characters">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="character" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="display" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="dialogues">
@@ -361,9 +348,6 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="characters" RootElement="characters" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
-  </Map>
   <Map ID="6" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
@@ -379,18 +363,20 @@
     <sheetNames>
       <sheetName val="人物"/>
       <sheetName val="config"/>
+      <sheetName val="角色表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:G13" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:G13" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:G14" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:G14" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
   <tableColumns count="7">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
       <xmlColumnPr mapId="6" xpath="/dialogues/line/@id" xmlDataType="string"/>
@@ -407,7 +393,7 @@
     <tableColumn id="5" xr3:uid="{52C3600D-FEA5-4BC9-A76F-3825DBE65247}" uniqueName="type" name="类型">
       <xmlColumnPr mapId="6" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转">
+    <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id">
       <xmlColumnPr mapId="6" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="0" dataCellStyle="注释">
@@ -692,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -705,8 +691,8 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.9140625" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,10 +712,10 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -737,80 +723,78 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>旁白</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5">
         <f>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>田所浩二</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <f>IF(NOT(ISBLANK(F3)), VLOOKUP(F3,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>记者</v>
+        <v>田所浩二</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <f>IF(NOT(ISBLANK(F4)), VLOOKUP(F4,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>田所浩二</v>
+        <v>记者</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <f>IF(NOT(ISBLANK(F5)), VLOOKUP(F5,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
@@ -821,16 +805,17 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>记者</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6">
         <f>IF(NOT(ISBLANK(F6)), VLOOKUP(F6,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
@@ -840,22 +825,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="e">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>记者</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="str">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6">
         <f>IF(NOT(ISBLANK(F7)), VLOOKUP(F7,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>非常得新鲜非常得美味</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -868,7 +850,7 @@
         <v>#N/A</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -876,9 +858,9 @@
       <c r="F8">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="6" t="str">
         <f>IF(NOT(ISBLANK(F8)), VLOOKUP(F8,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>这这不能</v>
+        <v>非常得新鲜非常得美味</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -886,12 +868,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="e">
+      <c r="C9" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -899,9 +881,9 @@
       <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="6" t="str">
         <f>IF(NOT(ISBLANK(F9)), VLOOKUP(F9,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>三回啊三回</v>
+        <v>这这不能</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,22 +891,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>记者</v>
+      <c r="C10" s="3" t="e">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="6" t="str">
         <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>结束</v>
+        <v>三回啊三回</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -933,19 +915,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>你</v>
+        <v>记者</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2" t="str">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="str">
         <f>IF(NOT(ISBLANK(F11)), VLOOKUP(F11,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>结束</v>
       </c>
@@ -956,21 +938,21 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>田所浩二</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>你</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="str">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="str">
         <f>IF(NOT(ISBLANK(F12)), VLOOKUP(F12,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>这这不能</v>
+        <v>结束</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -978,18 +960,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="e">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>田所浩二</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>IF(NOT(ISBLANK(F13)), VLOOKUP(F13,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
+        <v>这这不能</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>旁白</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
         <v>-1</v>
       </c>
-      <c r="G13" s="6">
-        <f>IF(NOT(ISBLANK(F13)), VLOOKUP(F13,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
+      <c r="G14" s="6">
+        <f>IF(NOT(ISBLANK(F14)), VLOOKUP(F14,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
     </row>
@@ -1009,7 +1017,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/FMP/Assets/Resources/Sheets/对话测试表.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5865E-0A55-46D6-B59F-EF76B673EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D96735-D01F-4CB6-9791-A051BE3236D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -87,11 +88,14 @@
   <connection id="6" xr16:uid="{A827CC8C-7102-4DAA-B7D6-E7E3EC199A80}" name="dialogueRule2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" xr16:uid="{39088F94-B65E-4B95-A8C8-E02057DABF17}" name="dialogueRule3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +189,30 @@
   </si>
   <si>
     <t>野兽先辈的会员制餐厅，就是你的所在之处了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>514</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -302,12 +330,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -329,7 +361,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="dialogues">
         <xsd:complexType>
@@ -341,6 +373,9 @@
                 <xsd:attribute name="content" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="jumpTo" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="function" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="param1" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="param2" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -348,8 +383,8 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="7" Name="dialogues" RootElement="dialogues" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -363,41 +398,69 @@
     <sheetNames>
       <sheetName val="人物"/>
       <sheetName val="config"/>
-      <sheetName val="角色表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="config"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:G14" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:G14" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:K14" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="A1:K14" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+  <tableColumns count="11">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="1" dataCellStyle="注释">
+    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="2" dataCellStyle="注释">
       <calculatedColumnFormula>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C388B9B5-0613-49F0-9A1C-27EF43E742AB}" uniqueName="content" name="对话内容">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@content" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{52C3600D-FEA5-4BC9-A76F-3825DBE65247}" uniqueName="type" name="类型">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@type" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="0" dataCellStyle="注释">
+    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="1" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数">
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@function" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="注释">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="param1" name="参数">
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@param1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{4120AE12-A2FB-44D4-90A5-815A49318516}" uniqueName="param2" name="参数2">
+      <xmlColumnPr mapId="7" xpath="/dialogues/line/@param2" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -678,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -693,9 +756,13 @@
     <col min="5" max="5" width="6.9140625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -717,31 +784,52 @@
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="5">
         <f>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="str">
@@ -751,18 +839,26 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6">
         <f>IF(NOT(ISBLANK(F3)), VLOOKUP(F3,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -772,18 +868,26 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="6">
         <f>IF(NOT(ISBLANK(F4)), VLOOKUP(F4,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -793,18 +897,26 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="6">
         <f>IF(NOT(ISBLANK(F5)), VLOOKUP(F5,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="H5" s="1"/>
+      <c r="I5" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="str">
@@ -814,192 +926,273 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="6">
         <f>IF(NOT(ISBLANK(F6)), VLOOKUP(F6,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>记者</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="6">
         <f>IF(NOT(ISBLANK(F7)), VLOOKUP(F7,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>IF(NOT(ISBLANK(F8)), VLOOKUP(F8,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>非常得新鲜非常得美味</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>IF(NOT(ISBLANK(F9)), VLOOKUP(F9,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>这这不能</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="3" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>11</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>三回啊三回</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="H10" s="1"/>
+      <c r="I10" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>记者</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>12</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>IF(NOT(ISBLANK(F11)), VLOOKUP(F11,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>结束</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>Escape</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>你</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>12</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>IF(NOT(ISBLANK(F12)), VLOOKUP(F12,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>结束</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>Jue</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>10</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>IF(NOT(ISBLANK(F13)), VLOOKUP(F13,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>这这不能</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="H13" s="1"/>
+      <c r="I13" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>-1</v>
       </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="6">
         <f>IF(NOT(ISBLANK(F14)), VLOOKUP(F14,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FMP/Assets/Resources/Sheets/对话测试表.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D96735-D01F-4CB6-9791-A051BE3236D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B5220-119D-4C55-A49B-CEB4D23D9283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="8910" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,14 @@
   <connection id="7" xr16:uid="{39088F94-B65E-4B95-A8C8-E02057DABF17}" name="dialogueRule3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="8" xr16:uid="{AB4B7BDA-C165-47EE-A7B8-BEB43BD3D5C3}" name="dialogueRule4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,15 +207,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>514</t>
+    <t>114,514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1919810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +335,10 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -361,7 +363,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="dialogues">
         <xsd:complexType>
@@ -374,8 +376,7 @@
                 <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="jumpTo" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="function" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="param1" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="param2" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="params" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -383,8 +384,8 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="7" Name="dialogues" RootElement="dialogues" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  <Map ID="8" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -419,48 +420,45 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:K14" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="A1:K14" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:J14" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:J14" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+  <tableColumns count="10">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="2" dataCellStyle="注释">
+    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="3" dataCellStyle="注释">
       <calculatedColumnFormula>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C388B9B5-0613-49F0-9A1C-27EF43E742AB}" uniqueName="content" name="对话内容">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@content" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{52C3600D-FEA5-4BC9-A76F-3825DBE65247}" uniqueName="type" name="类型">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@type" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="1" dataCellStyle="注释">
+    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@function" xmlDataType="string"/>
+    <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数" dataDxfId="0">
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="注释">
+    <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="1" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="param1" name="参数">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@param1" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{4120AE12-A2FB-44D4-90A5-815A49318516}" uniqueName="param2" name="参数2">
-      <xmlColumnPr mapId="7" xpath="/dialogues/line/@param2" xmlDataType="string"/>
+    <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="params" name="参数">
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -758,11 +756,11 @@
     <col min="7" max="7" width="37.25" customWidth="1"/>
     <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -793,11 +791,8 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -817,15 +812,14 @@
         <f>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -845,15 +839,14 @@
         <f>IF(NOT(ISBLANK(F3)), VLOOKUP(F3,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -874,15 +867,14 @@
         <f>IF(NOT(ISBLANK(F4)), VLOOKUP(F4,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
@@ -903,15 +895,14 @@
         <f>IF(NOT(ISBLANK(F5)), VLOOKUP(F5,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -932,15 +923,14 @@
         <f>IF(NOT(ISBLANK(F6)), VLOOKUP(F6,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -961,15 +951,14 @@
         <f>IF(NOT(ISBLANK(F7)), VLOOKUP(F7,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -992,15 +981,14 @@
         <f>IF(NOT(ISBLANK(F8)), VLOOKUP(F8,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>非常得新鲜非常得美味</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1023,15 +1011,14 @@
         <f>IF(NOT(ISBLANK(F9)), VLOOKUP(F9,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>这这不能</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1054,15 +1041,14 @@
         <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>三回啊三回</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1092,10 +1078,11 @@
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>Escape</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1126,13 +1113,10 @@
         <v>Jue</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1155,15 +1139,14 @@
         <f>IF(NOT(ISBLANK(F13)), VLOOKUP(F13,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>这这不能</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="3">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1186,13 +1169,14 @@
         <f>IF(NOT(ISBLANK(F14)), VLOOKUP(F14,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
-        <v>0</v>
+        <v>End</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FMP/Assets/Resources/Sheets/对话测试表.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B5220-119D-4C55-A49B-CEB4D23D9283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A41C54-1E49-410B-AB24-6DBF09580D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="8910" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{302EB0A9-6A4A-4DF9-B0E6-127F0EB404F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zhuang zhong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+函数的参数
+用逗号分割，不带空格，别用中文逗号</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -98,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +237,10 @@
   </si>
   <si>
     <t>1919810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1919,810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +291,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -335,7 +377,13 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -402,7 +450,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -420,23 +468,23 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:J14" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:J14" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:J15" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:J15" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
   <tableColumns count="10">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id">
+    <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id" dataDxfId="5">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="3" dataCellStyle="注释">
+    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="4" dataCellStyle="注释">
       <calculatedColumnFormula>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C388B9B5-0613-49F0-9A1C-27EF43E742AB}" uniqueName="content" name="对话内容">
@@ -445,17 +493,17 @@
     <tableColumn id="5" xr3:uid="{52C3600D-FEA5-4BC9-A76F-3825DBE65247}" uniqueName="type" name="类型">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id">
+    <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数" dataDxfId="1">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="1" dataCellStyle="注释">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="注释">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="params" name="参数">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
@@ -739,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -750,10 +798,10 @@
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.08203125" customWidth="1"/>
     <col min="5" max="5" width="6.9140625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -796,7 +844,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="str">
@@ -807,14 +855,12 @@
         <v>23</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="5">
         <f>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
       <c r="I2" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J2" s="1"/>
@@ -823,7 +869,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="str">
@@ -834,14 +880,12 @@
         <v>10</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="6">
         <f>IF(NOT(ISBLANK(F3)), VLOOKUP(F3,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
       <c r="I3" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J3" s="1"/>
@@ -851,7 +895,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -862,24 +906,22 @@
         <v>9</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="6">
         <f>IF(NOT(ISBLANK(F4)), VLOOKUP(F4,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
       <c r="I4" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A14" si="0">A4+1</f>
+        <f t="shared" ref="A5:A15" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -890,14 +932,12 @@
         <v>8</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="6">
         <f>IF(NOT(ISBLANK(F5)), VLOOKUP(F5,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H5" s="7"/>
       <c r="I5" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
@@ -907,7 +947,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="str">
@@ -918,14 +958,12 @@
         <v>11</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="6">
         <f>IF(NOT(ISBLANK(F6)), VLOOKUP(F6,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
       <c r="I6" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
@@ -935,7 +973,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="str">
@@ -946,14 +984,12 @@
         <v>13</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="6">
         <f>IF(NOT(ISBLANK(F7)), VLOOKUP(F7,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-      <c r="H7" s="7"/>
       <c r="I7" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
@@ -963,7 +999,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
@@ -974,16 +1009,15 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>IF(NOT(ISBLANK(F8)), VLOOKUP(F8,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>非常得新鲜非常得美味</v>
       </c>
-      <c r="H8" s="7"/>
       <c r="I8" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -993,7 +1027,6 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
@@ -1004,16 +1037,15 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>10</v>
+      <c r="F9">
+        <v>12</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>IF(NOT(ISBLANK(F9)), VLOOKUP(F9,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>这这不能</v>
       </c>
-      <c r="H9" s="7"/>
       <c r="I9" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
@@ -1023,7 +1055,6 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="3" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
@@ -1034,16 +1065,15 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>11</v>
+      <c r="F10">
+        <v>10</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>三回啊三回</v>
       </c>
-      <c r="H10" s="7"/>
       <c r="I10" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
@@ -1053,7 +1083,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="str">
@@ -1064,18 +1094,18 @@
         <v>16</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>12</v>
+      <c r="F11">
+        <v>13</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>IF(NOT(ISBLANK(F11)), VLOOKUP(F11,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>结束</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>Escape</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1087,33 +1117,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>3</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>你</v>
+        <v>田所浩二</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>12</v>
-      </c>
-      <c r="G12" s="6" t="str">
+      <c r="G12" s="6">
         <f>IF(NOT(ISBLANK(F12)), VLOOKUP(F12,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>结束</v>
-      </c>
-      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>Jue</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1121,27 +1148,26 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>田所浩二</v>
+        <v>你</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>10</v>
+      <c r="F13">
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>IF(NOT(ISBLANK(F13)), VLOOKUP(F13,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
-        <v>这这不能</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>结束</v>
+      </c>
       <c r="I13" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J13" s="1"/>
@@ -1151,32 +1177,60 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
-        <v>旁白</v>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>你</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="6">
         <f>IF(NOT(ISBLANK(F14)), VLOOKUP(F14,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
+        <v>Jue</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="6">
+        <f>IF(NOT(ISBLANK(F15)), VLOOKUP(F15,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="I14" s="3" t="str">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+      <c r="I15" s="3" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>End</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
